--- a/medicine/Œil et vue/Autoréfractomètre/Autoréfractomètre.xlsx
+++ b/medicine/Œil et vue/Autoréfractomètre/Autoréfractomètre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Autor%C3%A9fractom%C3%A8tre</t>
+          <t>Autoréfractomètre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'autoréfractomètre est un instrument de mesure objectif de la réfraction oculaire. Utilisé principalement par l'ophtalmologiste, l'optométriste, l'orthoptiste et l'opticien, il combine souvent un kératomètre. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Autor%C3%A9fractom%C3%A8tre</t>
+          <t>Autoréfractomètre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Principe de la mesure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le système projette sur la rétine une lumière infrarouge pour minimiser l’accommodation du sujet, ce dernier ne percevant pas cette lumière. 
 Le cône de lumière projeté est rétro diffusée par la rétine. Après une seconde traversée du système optique de l’œil, la lumière qui revient à l'appareil est analysée, ce qui permet de déterminer les caractéristiques optiques de l’œil traversé et d'en déduire les corrections nécessaires pour une bonne vision.
-Le système d’observation est constitué de récepteurs photo-sensibles dans ce domaine de fréquence et il est couplé à un ordinateur pour déterminer le plan conjugué[1].
+Le système d’observation est constitué de récepteurs photo-sensibles dans ce domaine de fréquence et il est couplé à un ordinateur pour déterminer le plan conjugué.
 Il permet des mesures rapides et précises 
 Précision  : pas de 0,01, 0,12, 0,25 dioptrie pour la sphère et le cylindre et pas de 1° pour l'astigmatisme cornéen.
 Rapidité  : certains appareils affichent une rapidité de l'ordre de 0,1 à 0,2 seconde/mesure ;
-Large gamme de mesure (-20 à + 25 dioptries pour la sphère, - 10 à + 10 dioptries pour le cylindre) [2].</t>
+Large gamme de mesure (-20 à + 25 dioptries pour la sphère, - 10 à + 10 dioptries pour le cylindre) .</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Autor%C3%A9fractom%C3%A8tre</t>
+          <t>Autoréfractomètre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,14 @@
           <t>Évolution de l'appareil</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces appareils sont souvent couplés à d'autres appareils de mesure
 Tonomètre qui mesure la tension de l'œil ;
 Keratomètre qui mesure les caractéristiques optiques de la cornée.
-Certains autoréfractomètres (comme le modèle Plusoptix) permettent même d'effectuer cette mesure sur les deux yeux simultanément à 1 mètre de distance et en moins d'une seconde [3].
+Certains autoréfractomètres (comme le modèle Plusoptix) permettent même d'effectuer cette mesure sur les deux yeux simultanément à 1 mètre de distance et en moins d'une seconde .
 </t>
         </is>
       </c>
